--- a/ActiTime/data/TestScript.xlsx
+++ b/ActiTime/data/TestScript.xlsx
@@ -4,19 +4,20 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="4" rupBuild="9302"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="110" windowWidth="14810" windowHeight="8010"/>
+    <workbookView xWindow="0" yWindow="2430" windowWidth="14420" windowHeight="6240"/>
   </bookViews>
   <sheets>
     <sheet name="CreateCustomer" sheetId="1" r:id="rId1"/>
     <sheet name="Sheet2" sheetId="2" r:id="rId2"/>
     <sheet name="Sheet3" sheetId="3" r:id="rId3"/>
   </sheets>
-  <calcPr calcId="122211"/>
+  <calcPr calcId="0"/>
+  <oleSize ref="A1"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="8" uniqueCount="8">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="10" uniqueCount="10">
   <si>
     <t>TestCase Name</t>
   </si>
@@ -40,6 +41,12 @@
   </si>
   <si>
     <t>Create New Account</t>
+  </si>
+  <si>
+    <t>SearchField in Tasks Page</t>
+  </si>
+  <si>
+    <t>mobile</t>
   </si>
 </sst>
 </file>
@@ -378,15 +385,15 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="C1:F2"/>
+  <dimension ref="C1:F6"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D15" sqref="D15"/>
+      <selection activeCell="C13" sqref="C13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="3" max="3" width="19.08984375" customWidth="1"/>
+    <col min="3" max="3" width="21.81640625" customWidth="1"/>
     <col min="4" max="4" width="22.7265625" customWidth="1"/>
     <col min="5" max="5" width="14.90625" customWidth="1"/>
     <col min="6" max="6" width="22.08984375" customWidth="1"/>
@@ -418,6 +425,16 @@
       </c>
       <c r="F2" t="s">
         <v>7</v>
+      </c>
+    </row>
+    <row r="5" spans="3:6" x14ac:dyDescent="0.35">
+      <c r="C5" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="6" spans="3:6" x14ac:dyDescent="0.35">
+      <c r="C6" t="s">
+        <v>9</v>
       </c>
     </row>
   </sheetData>
